--- a/1 - No code/docs/base.xlsx
+++ b/1 - No code/docs/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\nba\1 - No code\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956BFA7-AF9A-49E0-8A52-A4F425A43A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86425EB0-5EFE-42FD-80FF-0C0CF2D2CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7E229403-3AC3-40FF-B32A-0CABDA96EFD3}"/>
   </bookViews>
